--- a/demo_docs/data_oa.xlsx
+++ b/demo_docs/data_oa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7870"/>
+    <workbookView windowWidth="19200" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>序号</t>
   </si>
@@ -115,6 +115,53 @@
     <t>（2018）XX111号</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申请人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:XXX, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被申请人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XXX</t>
+    </r>
+  </si>
+  <si>
     <t>2018-01-12</t>
   </si>
   <si>
@@ -204,141 +251,7 @@
     <t>（2018）XX113号</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>申请人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>罗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">XX, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被申请人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>樊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">XX, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原审被告</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>罗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（又名罗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>aa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>申请人:李XX, 被申请人:张XX, 原审被告:罗XX（又名罗AA）</t>
   </si>
   <si>
     <t>（2018）AA113号</t>
@@ -441,12 +354,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,150 +378,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -616,6 +385,156 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -638,19 +557,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,37 +707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,121 +719,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,21 +762,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,22 +781,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,17 +805,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,6 +838,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -950,149 +869,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1111,6 +1030,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1461,8 +1384,8 @@
   <sheetPr/>
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9:R10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.63636363636364" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1587,7 +1510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15" spans="1:30">
+    <row r="2" s="1" customFormat="1" ht="15.5" spans="1:30">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -1605,12 +1528,14 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
+      <c r="L2" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -1623,7 +1548,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -1631,14 +1556,14 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:30">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1648,13 +1573,13 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -1667,7 +1592,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
@@ -1675,14 +1600,14 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="15.5" spans="1:30">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1691,14 +1616,14 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="5" t="s">
-        <v>42</v>
+      <c r="L4" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -1711,7 +1636,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
@@ -1719,14 +1644,14 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:30">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1736,13 +1661,13 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1755,22 +1680,22 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15" spans="1:30">
+    <row r="6" s="1" customFormat="1" ht="15.5" spans="1:30">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1779,12 +1704,14 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1797,7 +1724,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>

--- a/demo_docs/data_oa.xlsx
+++ b/demo_docs/data_oa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7890"/>
+    <workbookView windowWidth="17850" windowHeight="7256"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>序号</t>
   </si>
@@ -109,6 +109,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>AAA</t>
+  </si>
+  <si>
     <t>法官1</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>DDD</t>
+  </si>
+  <si>
     <t>（2018）XX112号</t>
   </si>
   <si>
@@ -246,6 +252,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>XX113-XX115</t>
   </si>
   <si>
     <t>（2018）XX113号</t>
@@ -354,12 +363,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,15 +395,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,6 +433,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -417,98 +525,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -522,19 +538,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -557,19 +560,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,60 +716,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -647,97 +728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,6 +780,63 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,54 +858,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -854,25 +866,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,133 +884,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1384,41 +1387,41 @@
   <sheetPr/>
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.63636363636364" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="5.63392857142857" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="4.63636363636364" customWidth="1"/>
-    <col min="2" max="2" width="8.63636363636364" customWidth="1"/>
+    <col min="1" max="1" width="4.63392857142857" customWidth="1"/>
+    <col min="2" max="2" width="8.63392857142857" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="16.4545454545455" customWidth="1"/>
-    <col min="5" max="5" width="8.63636363636364" customWidth="1"/>
-    <col min="6" max="6" width="10.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="12.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="8.63636363636364" customWidth="1"/>
-    <col min="9" max="10" width="10.6363636363636" customWidth="1"/>
-    <col min="11" max="11" width="12.6363636363636" customWidth="1"/>
-    <col min="12" max="12" width="63.6363636363636" customWidth="1"/>
-    <col min="13" max="13" width="8.63636363636364" customWidth="1"/>
-    <col min="14" max="14" width="12.6363636363636" customWidth="1"/>
-    <col min="15" max="15" width="8.63636363636364" customWidth="1"/>
-    <col min="16" max="16" width="12.8181818181818" customWidth="1"/>
-    <col min="17" max="17" width="8.63636363636364" customWidth="1"/>
-    <col min="18" max="18" width="12.6363636363636" customWidth="1"/>
-    <col min="19" max="22" width="8.63636363636364" customWidth="1"/>
-    <col min="23" max="23" width="12.6363636363636" customWidth="1"/>
-    <col min="24" max="24" width="6.63636363636364" customWidth="1"/>
-    <col min="25" max="25" width="14.6363636363636" customWidth="1"/>
-    <col min="26" max="26" width="10.6363636363636" customWidth="1"/>
-    <col min="27" max="27" width="16.4545454545455" customWidth="1"/>
-    <col min="28" max="28" width="4.63636363636364" customWidth="1"/>
-    <col min="29" max="29" width="12.6363636363636" customWidth="1"/>
-    <col min="30" max="30" width="4.63636363636364" customWidth="1"/>
+    <col min="4" max="4" width="16.4553571428571" customWidth="1"/>
+    <col min="5" max="5" width="8.63392857142857" customWidth="1"/>
+    <col min="6" max="6" width="10.6339285714286" customWidth="1"/>
+    <col min="7" max="7" width="12.6339285714286" customWidth="1"/>
+    <col min="8" max="8" width="8.63392857142857" customWidth="1"/>
+    <col min="9" max="10" width="10.6339285714286" customWidth="1"/>
+    <col min="11" max="11" width="12.6339285714286" customWidth="1"/>
+    <col min="12" max="12" width="63.6339285714286" customWidth="1"/>
+    <col min="13" max="13" width="8.63392857142857" customWidth="1"/>
+    <col min="14" max="14" width="12.6339285714286" customWidth="1"/>
+    <col min="15" max="15" width="8.63392857142857" customWidth="1"/>
+    <col min="16" max="16" width="12.8214285714286" customWidth="1"/>
+    <col min="17" max="17" width="8.63392857142857" customWidth="1"/>
+    <col min="18" max="18" width="12.6339285714286" customWidth="1"/>
+    <col min="19" max="22" width="8.63392857142857" customWidth="1"/>
+    <col min="23" max="23" width="12.6339285714286" customWidth="1"/>
+    <col min="24" max="24" width="6.63392857142857" customWidth="1"/>
+    <col min="25" max="25" width="14.6339285714286" customWidth="1"/>
+    <col min="26" max="26" width="10.6339285714286" customWidth="1"/>
+    <col min="27" max="27" width="16.4553571428571" customWidth="1"/>
+    <col min="28" max="28" width="4.63392857142857" customWidth="1"/>
+    <col min="29" max="29" width="12.6339285714286" customWidth="1"/>
+    <col min="30" max="30" width="4.63392857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" spans="1:30">
+    <row r="1" s="1" customFormat="1" ht="28.05" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1510,16 +1513,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.5" spans="1:30">
+    <row r="2" s="1" customFormat="1" ht="15.45" spans="1:30">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1529,13 +1534,13 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -1548,22 +1553,24 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:30">
+    <row r="3" s="1" customFormat="1" ht="15.45" spans="1:30">
       <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1573,13 +1580,13 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -1592,22 +1599,24 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.5" spans="1:30">
+    <row r="4" s="1" customFormat="1" ht="15.4" spans="1:30">
       <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1617,13 +1626,13 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -1636,22 +1645,24 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.5" spans="1:30">
+    <row r="5" s="1" customFormat="1" ht="15.45" spans="1:30">
       <c r="A5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1661,13 +1672,13 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1680,22 +1691,24 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.5" spans="1:30">
+    <row r="6" s="1" customFormat="1" ht="15.45" spans="1:30">
       <c r="A6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1705,13 +1718,13 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1724,7 +1737,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
